--- a/Banco Central/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/2/2/2/Otros activos del tesoro por tipo de Instrumentos 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5865,6 +5868,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171">
+        <v>5891</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>14</v>
+      </c>
+      <c r="E171">
+        <v>1551</v>
+      </c>
+      <c r="F171">
+        <v>370</v>
+      </c>
+      <c r="G171">
+        <v>757</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>3200</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
